--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il15</t>
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H2">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I2">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J2">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N2">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O2">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P2">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q2">
-        <v>60.68577155657118</v>
+        <v>123.8829784585387</v>
       </c>
       <c r="R2">
-        <v>60.68577155657118</v>
+        <v>1114.946806126848</v>
       </c>
       <c r="S2">
-        <v>0.005122574826057029</v>
+        <v>0.008653700387498145</v>
       </c>
       <c r="T2">
-        <v>0.005122574826057029</v>
+        <v>0.008653700387498143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H3">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I3">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J3">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N3">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O3">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P3">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q3">
-        <v>6.515719276338181</v>
+        <v>7.711797805959113</v>
       </c>
       <c r="R3">
-        <v>6.515719276338181</v>
+        <v>69.40618025363202</v>
       </c>
       <c r="S3">
-        <v>0.0005500014036652769</v>
+        <v>0.0005386986048617717</v>
       </c>
       <c r="T3">
-        <v>0.0005500014036652769</v>
+        <v>0.0005386986048617716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H4">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I4">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J4">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N4">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O4">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P4">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q4">
-        <v>261.7091461577484</v>
+        <v>356.9747349096961</v>
       </c>
       <c r="R4">
-        <v>261.7091461577484</v>
+        <v>3212.772614187264</v>
       </c>
       <c r="S4">
-        <v>0.0220912521909165</v>
+        <v>0.02493605207311806</v>
       </c>
       <c r="T4">
-        <v>0.0220912521909165</v>
+        <v>0.02493605207311806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H5">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I5">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J5">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N5">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O5">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P5">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q5">
-        <v>339.92004022475</v>
+        <v>405.1448311097103</v>
       </c>
       <c r="R5">
-        <v>339.92004022475</v>
+        <v>3646.303479987392</v>
       </c>
       <c r="S5">
-        <v>0.02869314826630147</v>
+        <v>0.02830091773374954</v>
       </c>
       <c r="T5">
-        <v>0.02869314826630147</v>
+        <v>0.02830091773374953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H6">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I6">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J6">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N6">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O6">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P6">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q6">
-        <v>115.4837252518197</v>
+        <v>138.5450256340551</v>
       </c>
       <c r="R6">
-        <v>115.4837252518197</v>
+        <v>1246.905230706496</v>
       </c>
       <c r="S6">
-        <v>0.009748150326189614</v>
+        <v>0.009677900523005441</v>
       </c>
       <c r="T6">
-        <v>0.009748150326189614</v>
+        <v>0.009677900523005436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H7">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I7">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J7">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N7">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O7">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P7">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q7">
-        <v>13.47909605661972</v>
+        <v>16.94507216509867</v>
       </c>
       <c r="R7">
-        <v>13.47909605661972</v>
+        <v>152.505649485888</v>
       </c>
       <c r="S7">
-        <v>0.001137790232645862</v>
+        <v>0.001183678172626236</v>
       </c>
       <c r="T7">
-        <v>0.001137790232645862</v>
+        <v>0.001183678172626235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H8">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J8">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N8">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O8">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P8">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q8">
-        <v>30.70909208254026</v>
+        <v>55.72914250823068</v>
       </c>
       <c r="R8">
-        <v>30.70909208254026</v>
+        <v>501.5622825740761</v>
       </c>
       <c r="S8">
-        <v>0.002592199423326835</v>
+        <v>0.003892893988497537</v>
       </c>
       <c r="T8">
-        <v>0.002592199423326835</v>
+        <v>0.003892893988497537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H9">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J9">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N9">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O9">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P9">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q9">
-        <v>3.29717853310189</v>
+        <v>3.469176187645445</v>
       </c>
       <c r="R9">
-        <v>3.29717853310189</v>
+        <v>31.222585688809</v>
       </c>
       <c r="S9">
-        <v>0.000278319667320016</v>
+        <v>0.0002423352400214873</v>
       </c>
       <c r="T9">
-        <v>0.000278319667320016</v>
+        <v>0.0002423352400214873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H10">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J10">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N10">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O10">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P10">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q10">
-        <v>132.4338483644283</v>
+        <v>160.586192882652</v>
       </c>
       <c r="R10">
-        <v>132.4338483644283</v>
+        <v>1445.275735943868</v>
       </c>
       <c r="S10">
-        <v>0.01117893503450094</v>
+        <v>0.01121756044992535</v>
       </c>
       <c r="T10">
-        <v>0.01117893503450094</v>
+        <v>0.01121756044992535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H11">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J11">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N11">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O11">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P11">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q11">
-        <v>172.0112564809653</v>
+        <v>182.2556602232699</v>
       </c>
       <c r="R11">
-        <v>172.0112564809653</v>
+        <v>1640.300942009429</v>
       </c>
       <c r="S11">
-        <v>0.01451972199820239</v>
+        <v>0.01273125571505124</v>
       </c>
       <c r="T11">
-        <v>0.01451972199820239</v>
+        <v>0.01273125571505124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H12">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I12">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J12">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N12">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O12">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P12">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q12">
-        <v>58.43874539004518</v>
+        <v>62.32490995484745</v>
       </c>
       <c r="R12">
-        <v>58.43874539004518</v>
+        <v>560.924189593627</v>
       </c>
       <c r="S12">
-        <v>0.004932900057509224</v>
+        <v>0.004353633599530849</v>
       </c>
       <c r="T12">
-        <v>0.004932900057509224</v>
+        <v>0.004353633599530848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H13">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I13">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J13">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N13">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O13">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P13">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q13">
-        <v>6.820887192746237</v>
+        <v>7.622793326825668</v>
       </c>
       <c r="R13">
-        <v>6.820887192746237</v>
+        <v>68.60513994143101</v>
       </c>
       <c r="S13">
-        <v>0.00057576107428024</v>
+        <v>0.0005324813012002849</v>
       </c>
       <c r="T13">
-        <v>0.00057576107428024</v>
+        <v>0.0005324813012002848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H14">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I14">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J14">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N14">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O14">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P14">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q14">
-        <v>226.7589883600893</v>
+        <v>446.6960984834574</v>
       </c>
       <c r="R14">
-        <v>226.7589883600893</v>
+        <v>4020.264886351117</v>
       </c>
       <c r="S14">
-        <v>0.01914105820130703</v>
+        <v>0.03120343285767818</v>
       </c>
       <c r="T14">
-        <v>0.01914105820130703</v>
+        <v>0.03120343285767818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H15">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I15">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J15">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N15">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O15">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P15">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q15">
-        <v>24.34669402140595</v>
+        <v>27.80712923662989</v>
       </c>
       <c r="R15">
-        <v>24.34669402140595</v>
+        <v>250.264163129669</v>
       </c>
       <c r="S15">
-        <v>0.002055140087911803</v>
+        <v>0.001942434449384593</v>
       </c>
       <c r="T15">
-        <v>0.002055140087911803</v>
+        <v>0.001942434449384593</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H16">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I16">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J16">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N16">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O16">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P16">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q16">
-        <v>977.9046999837935</v>
+        <v>1287.176199066732</v>
       </c>
       <c r="R16">
-        <v>977.9046999837935</v>
+        <v>11584.58579160059</v>
       </c>
       <c r="S16">
-        <v>0.08254636745864037</v>
+        <v>0.08991418604267838</v>
       </c>
       <c r="T16">
-        <v>0.08254636745864037</v>
+        <v>0.08991418604267838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H17">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I17">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J17">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N17">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O17">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P17">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q17">
-        <v>1270.148215431872</v>
+        <v>1460.867486633899</v>
       </c>
       <c r="R17">
-        <v>1270.148215431872</v>
+        <v>13147.80737970509</v>
       </c>
       <c r="S17">
-        <v>0.1072150704661847</v>
+        <v>0.1020471875351158</v>
       </c>
       <c r="T17">
-        <v>0.1072150704661847</v>
+        <v>0.1020471875351158</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H18">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I18">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J18">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N18">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O18">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P18">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q18">
-        <v>431.5175046550354</v>
+        <v>499.5643726449119</v>
       </c>
       <c r="R18">
-        <v>431.5175046550354</v>
+        <v>4496.079353804207</v>
       </c>
       <c r="S18">
-        <v>0.03642502434509255</v>
+        <v>0.03489648423802141</v>
       </c>
       <c r="T18">
-        <v>0.03642502434509255</v>
+        <v>0.03489648423802141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H19">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I19">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J19">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N19">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O19">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P19">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q19">
-        <v>50.36610901384496</v>
+        <v>61.10038456335234</v>
       </c>
       <c r="R19">
-        <v>50.36610901384496</v>
+        <v>549.903461070171</v>
       </c>
       <c r="S19">
-        <v>0.00425147700198975</v>
+        <v>0.004268095812284079</v>
       </c>
       <c r="T19">
-        <v>0.00425147700198975</v>
+        <v>0.004268095812284078</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H20">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I20">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J20">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N20">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O20">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P20">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q20">
-        <v>247.1649156159729</v>
+        <v>441.1773299632934</v>
       </c>
       <c r="R20">
-        <v>247.1649156159729</v>
+        <v>3970.595969669641</v>
       </c>
       <c r="S20">
-        <v>0.02086355239693405</v>
+        <v>0.03081792574543645</v>
       </c>
       <c r="T20">
-        <v>0.02086355239693405</v>
+        <v>0.03081792574543645</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H21">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I21">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J21">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N21">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O21">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P21">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q21">
-        <v>26.53764076497288</v>
+        <v>27.46358222561222</v>
       </c>
       <c r="R21">
-        <v>26.53764076497288</v>
+        <v>247.17224003051</v>
       </c>
       <c r="S21">
-        <v>0.002240081110262737</v>
+        <v>0.001918436375239464</v>
       </c>
       <c r="T21">
-        <v>0.002240081110262737</v>
+        <v>0.001918436375239464</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H22">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I22">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J22">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N22">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O22">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P22">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q22">
-        <v>1065.905851847145</v>
+        <v>1271.27360329428</v>
       </c>
       <c r="R22">
-        <v>1065.905851847145</v>
+        <v>11441.46242964852</v>
       </c>
       <c r="S22">
-        <v>0.08997467352835881</v>
+        <v>0.0888033288376722</v>
       </c>
       <c r="T22">
-        <v>0.08997467352835881</v>
+        <v>0.0888033288376722</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H23">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I23">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J23">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N23">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O23">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P23">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q23">
-        <v>1384.448214191503</v>
+        <v>1442.818997908034</v>
       </c>
       <c r="R23">
-        <v>1384.448214191503</v>
+        <v>12985.37098117231</v>
       </c>
       <c r="S23">
-        <v>0.1168633007060956</v>
+        <v>0.1007864314907893</v>
       </c>
       <c r="T23">
-        <v>0.1168633007060956</v>
+        <v>0.1007864314907893</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H24">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I24">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J24">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N24">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O24">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P24">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q24">
-        <v>470.3495477564454</v>
+        <v>493.3924357443922</v>
       </c>
       <c r="R24">
-        <v>470.3495477564454</v>
+        <v>4440.53192169953</v>
       </c>
       <c r="S24">
-        <v>0.03970289395659138</v>
+        <v>0.03446535081346045</v>
       </c>
       <c r="T24">
-        <v>0.03970289395659138</v>
+        <v>0.03446535081346044</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H25">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I25">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J25">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N25">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O25">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P25">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q25">
-        <v>54.89852981943768</v>
+        <v>60.34551144034334</v>
       </c>
       <c r="R25">
-        <v>54.89852981943768</v>
+        <v>543.1096029630901</v>
       </c>
       <c r="S25">
-        <v>0.004634065278027124</v>
+        <v>0.004215365034267782</v>
       </c>
       <c r="T25">
-        <v>0.004634065278027124</v>
+        <v>0.004215365034267781</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H26">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I26">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J26">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N26">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O26">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P26">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q26">
-        <v>335.8268025283272</v>
+        <v>613.355745173592</v>
       </c>
       <c r="R26">
-        <v>335.8268025283272</v>
+        <v>5520.201706562329</v>
       </c>
       <c r="S26">
-        <v>0.02834763207950936</v>
+        <v>0.04284524731102866</v>
       </c>
       <c r="T26">
-        <v>0.02834763207950936</v>
+        <v>0.04284524731102865</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H27">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I27">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J27">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N27">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O27">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P27">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q27">
-        <v>36.05710390787475</v>
+        <v>38.181803091578</v>
       </c>
       <c r="R27">
-        <v>36.05710390787475</v>
+        <v>343.636227824202</v>
       </c>
       <c r="S27">
-        <v>0.003043632931433026</v>
+        <v>0.002667145142296927</v>
       </c>
       <c r="T27">
-        <v>0.003043632931433026</v>
+        <v>0.002667145142296927</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H28">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I28">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J28">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N28">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O28">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P28">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q28">
-        <v>1448.262805139511</v>
+        <v>1767.413951965656</v>
       </c>
       <c r="R28">
-        <v>1448.262805139511</v>
+        <v>15906.7255676909</v>
       </c>
       <c r="S28">
-        <v>0.122249983757833</v>
+        <v>0.1234606318907134</v>
       </c>
       <c r="T28">
-        <v>0.122249983757833</v>
+        <v>0.1234606318907134</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H29">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I29">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J29">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N29">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O29">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P29">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q29">
-        <v>1881.071251068527</v>
+        <v>2005.908421645618</v>
       </c>
       <c r="R29">
-        <v>1881.071251068527</v>
+        <v>18053.17579481056</v>
       </c>
       <c r="S29">
-        <v>0.1587839783459066</v>
+        <v>0.1401203837821033</v>
       </c>
       <c r="T29">
-        <v>0.1587839783459066</v>
+        <v>0.1401203837821032</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H30">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I30">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J30">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N30">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O30">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P30">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q30">
-        <v>639.0712221434875</v>
+        <v>685.948856697134</v>
       </c>
       <c r="R30">
-        <v>639.0712221434875</v>
+        <v>6173.539710274205</v>
       </c>
       <c r="S30">
-        <v>0.05394493751402664</v>
+        <v>0.04791615410659959</v>
       </c>
       <c r="T30">
-        <v>0.05394493751402664</v>
+        <v>0.04791615410659957</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H31">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I31">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J31">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N31">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O31">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P31">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q31">
-        <v>74.59148353163897</v>
+        <v>83.89657315450199</v>
       </c>
       <c r="R31">
-        <v>74.59148353163897</v>
+        <v>755.0691583905179</v>
       </c>
       <c r="S31">
-        <v>0.006296376332979927</v>
+        <v>0.005860496870922943</v>
       </c>
       <c r="T31">
-        <v>0.006296376332979927</v>
+        <v>0.005860496870922941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.40878</v>
+      </c>
+      <c r="H32">
+        <v>1.22634</v>
+      </c>
+      <c r="I32">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J32">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>23.115164</v>
+      </c>
+      <c r="N32">
+        <v>69.34549200000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="P32">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="Q32">
+        <v>9.449016739920001</v>
+      </c>
+      <c r="R32">
+        <v>85.04115065928001</v>
+      </c>
+      <c r="S32">
+        <v>0.000660049999129531</v>
+      </c>
+      <c r="T32">
+        <v>0.0006600499991295309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.40878</v>
+      </c>
+      <c r="H33">
+        <v>1.22634</v>
+      </c>
+      <c r="I33">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J33">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.438934333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.316803</v>
+      </c>
+      <c r="O33">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="P33">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="Q33">
+        <v>0.5882075767799999</v>
+      </c>
+      <c r="R33">
+        <v>5.293868191020001</v>
+      </c>
+      <c r="S33">
+        <v>4.10885514575678E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.10885514575678E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.40878</v>
+      </c>
+      <c r="H34">
+        <v>1.22634</v>
+      </c>
+      <c r="I34">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J34">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>66.60745199999999</v>
+      </c>
+      <c r="N34">
+        <v>199.822356</v>
+      </c>
+      <c r="O34">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="P34">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="Q34">
+        <v>27.22779422856</v>
+      </c>
+      <c r="R34">
+        <v>245.05014805704</v>
+      </c>
+      <c r="S34">
+        <v>0.00190196568082408</v>
+      </c>
+      <c r="T34">
+        <v>0.00190196568082408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.40878</v>
+      </c>
+      <c r="H35">
+        <v>1.22634</v>
+      </c>
+      <c r="I35">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J35">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>75.59544766666666</v>
+      </c>
+      <c r="N35">
+        <v>226.786343</v>
+      </c>
+      <c r="O35">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="P35">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="Q35">
+        <v>30.90190709717999</v>
+      </c>
+      <c r="R35">
+        <v>278.11716387462</v>
+      </c>
+      <c r="S35">
+        <v>0.00215861653270467</v>
+      </c>
+      <c r="T35">
+        <v>0.00215861653270467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.40878</v>
+      </c>
+      <c r="H36">
+        <v>1.22634</v>
+      </c>
+      <c r="I36">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J36">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.85093633333333</v>
+      </c>
+      <c r="N36">
+        <v>77.552809</v>
+      </c>
+      <c r="O36">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="P36">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="Q36">
+        <v>10.56734575434</v>
+      </c>
+      <c r="R36">
+        <v>95.10611178905999</v>
+      </c>
+      <c r="S36">
+        <v>0.0007381695628166092</v>
+      </c>
+      <c r="T36">
+        <v>0.0007381695628166091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.40878</v>
+      </c>
+      <c r="H37">
+        <v>1.22634</v>
+      </c>
+      <c r="I37">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J37">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.161759</v>
+      </c>
+      <c r="N37">
+        <v>9.485277</v>
+      </c>
+      <c r="O37">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P37">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q37">
+        <v>1.29246384402</v>
+      </c>
+      <c r="R37">
+        <v>11.63217459618</v>
+      </c>
+      <c r="S37">
+        <v>9.028354828881103E-05</v>
+      </c>
+      <c r="T37">
+        <v>9.028354828881102E-05</v>
       </c>
     </row>
   </sheetData>
